--- a/input_data/admin_data/CHL/gpinter_CHL_2013.xlsx
+++ b/input_data/admin_data/CHL/gpinter_CHL_2013.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t>year</t>
   </si>
@@ -204,6 +204,54 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>country</t>
   </si>
   <si>
@@ -393,10 +441,106 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>component</t>
   </si>
   <si>
     <t>postax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -644,7 +788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J79"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -652,31 +796,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="E1" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="F1" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="G1" t="s">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="H1" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="I1" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="J1" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2">
@@ -684,31 +828,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="D2">
-        <v>1236262.8596135201</v>
+        <v>3030570.5014008</v>
       </c>
       <c r="E2">
-        <v>0.65000000000000002</v>
+        <v>0.48999999999999999</v>
       </c>
       <c r="F2">
-        <v>57675.9697867383</v>
+        <v>59478.758920319196</v>
       </c>
       <c r="G2">
-        <v>0.99979217211953497</v>
+        <v>0.99990900751363798</v>
       </c>
       <c r="H2">
-        <v>3531445.51349631</v>
+        <v>5941754.3965799604</v>
       </c>
       <c r="I2">
-        <v>91773.337467294201</v>
+        <v>92742.097783501202</v>
       </c>
       <c r="J2">
-        <v>61.229061714161503</v>
+        <v>99.897080982134199</v>
       </c>
     </row>
     <row r="3">
@@ -716,29 +860,29 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="D3"/>
       <c r="E3">
-        <v>0.66000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="F3">
-        <v>126811.370315733</v>
+        <v>126632.538039675</v>
       </c>
       <c r="G3">
-        <v>0.99904982726339298</v>
+        <v>0.99960298560211802</v>
       </c>
       <c r="H3">
-        <v>3632612.3422030499</v>
+        <v>6058734.6425558897</v>
       </c>
       <c r="I3">
-        <v>163793.18001689101</v>
+        <v>161799.12031569399</v>
       </c>
       <c r="J3">
-        <v>28.645793615813901</v>
+        <v>47.845006791679602</v>
       </c>
     </row>
     <row r="4">
@@ -746,29 +890,29 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>0.67000000000000004</v>
+        <v>0.51000000000000001</v>
       </c>
       <c r="F4">
-        <v>201778.71139702899</v>
+        <v>197614.74997433499</v>
       </c>
       <c r="G4">
-        <v>0.99772492148997105</v>
+        <v>0.99906909562912205</v>
       </c>
       <c r="H4">
-        <v>3737728.0743904999</v>
+        <v>6179080.2654587496</v>
       </c>
       <c r="I4">
-        <v>241837.15948655401</v>
+        <v>234750.415759519</v>
       </c>
       <c r="J4">
-        <v>18.523897038057601</v>
+        <v>31.268315073957002</v>
       </c>
     </row>
     <row r="5">
@@ -776,29 +920,29 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="D5"/>
       <c r="E5">
-        <v>0.68000000000000005</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="F5">
-        <v>282965.39439266099</v>
+        <v>272557.05527881999</v>
       </c>
       <c r="G5">
-        <v>0.99576872619051704</v>
+        <v>0.99829448762824802</v>
       </c>
       <c r="H5">
-        <v>3846974.6654812498</v>
+        <v>6302920.4706608197</v>
       </c>
       <c r="I5">
-        <v>326301.59113803698</v>
+        <v>311727.47218925098</v>
       </c>
       <c r="J5">
-        <v>13.595212494934801</v>
+        <v>23.125141501888699</v>
       </c>
     </row>
     <row r="6">
@@ -806,29 +950,29 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="D6"/>
       <c r="E6">
-        <v>0.68999999999999995</v>
+        <v>0.53000000000000003</v>
       </c>
       <c r="F6">
-        <v>370776.52176526102</v>
+        <v>351590.65277805802</v>
       </c>
       <c r="G6">
-        <v>0.99312930700388802</v>
+        <v>0.99726587776074904</v>
       </c>
       <c r="H6">
-        <v>3960544.7646536198</v>
+        <v>6430392.66211766</v>
       </c>
       <c r="I6">
-        <v>417600.03199998598</v>
+        <v>392860.94919160102</v>
       </c>
       <c r="J6">
-        <v>10.681757156029001</v>
+        <v>18.289430083844799</v>
       </c>
     </row>
     <row r="7">
@@ -836,29 +980,29 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="D7"/>
       <c r="E7">
-        <v>0.69999999999999996</v>
+        <v>0.54000000000000004</v>
       </c>
       <c r="F7">
-        <v>465633.89524031099</v>
+        <v>434845.52927638101</v>
       </c>
       <c r="G7">
-        <v>0.98975138434971699</v>
+        <v>0.99596955104929397</v>
       </c>
       <c r="H7">
-        <v>4078642.92240874</v>
+        <v>6561643.3515291</v>
       </c>
       <c r="I7">
-        <v>516162.00857307401</v>
+        <v>478279.87559149001</v>
       </c>
       <c r="J7">
-        <v>8.7593342411290092</v>
+        <v>15.0895959823899</v>
       </c>
     </row>
     <row r="8">
@@ -866,29 +1010,29 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="D8"/>
       <c r="E8">
-        <v>0.70999999999999996</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F8">
-        <v>567974.45121109195</v>
+        <v>522449.603656689</v>
       </c>
       <c r="G8">
-        <v>0.98557620425303005</v>
+        <v>0.99439136675900797</v>
       </c>
       <c r="H8">
-        <v>4201487.0918513397</v>
+        <v>6696829.2065499397</v>
       </c>
       <c r="I8">
-        <v>622431.11145023606</v>
+        <v>568110.73669102194</v>
       </c>
       <c r="J8">
-        <v>7.3973170498998897</v>
+        <v>12.8181343419116</v>
       </c>
     </row>
     <row r="9">
@@ -896,29 +1040,29 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="D9"/>
       <c r="E9">
-        <v>0.71999999999999997</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F9">
-        <v>678247.98773119401</v>
+        <v>614527.75562558195</v>
       </c>
       <c r="G9">
-        <v>0.98054142458129601</v>
+        <v>0.99251676679036005</v>
       </c>
       <c r="H9">
-        <v>4329310.51972281</v>
+        <v>6836118.2626830898</v>
       </c>
       <c r="I9">
-        <v>736862.295211363</v>
+        <v>662476.44122414803</v>
       </c>
       <c r="J9">
-        <v>6.3830790478343804</v>
+        <v>11.124181454951501</v>
       </c>
     </row>
     <row r="10">
@@ -926,29 +1070,29 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="D10"/>
       <c r="E10">
-        <v>0.72999999999999998</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F10">
-        <v>796914.00445587095</v>
+        <v>711200.72926060704</v>
       </c>
       <c r="G10">
-        <v>0.97458102312232398</v>
+        <v>0.99033078748079495</v>
       </c>
       <c r="H10">
-        <v>4462364.1576676797</v>
+        <v>6979691.3282984197</v>
       </c>
       <c r="I10">
-        <v>859918.18561649194</v>
+        <v>761495.15828608698</v>
       </c>
       <c r="J10">
-        <v>5.5995554510484</v>
+        <v>9.8139541217214195</v>
       </c>
     </row>
     <row r="11">
@@ -956,29 +1100,29 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="D11"/>
       <c r="E11">
-        <v>0.73999999999999999</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F11">
-        <v>924437.43686774804</v>
+        <v>812583.90173533</v>
       </c>
       <c r="G11">
-        <v>0.96762523553290003</v>
+        <v>0.98781807524415799</v>
       </c>
       <c r="H11">
-        <v>4600919.7719773399</v>
+        <v>7127743.6180606103</v>
       </c>
       <c r="I11">
-        <v>992064.15195802297</v>
+        <v>865279.01487340103</v>
       </c>
       <c r="J11">
-        <v>4.9769942112757199</v>
+        <v>8.7717017317704808</v>
       </c>
     </row>
     <row r="12">
@@ -986,29 +1130,29 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="D12"/>
       <c r="E12">
-        <v>0.75</v>
+        <v>0.58999999999999997</v>
       </c>
       <c r="F12">
-        <v>1061283.01774251</v>
+        <v>918785.90828792704</v>
       </c>
       <c r="G12">
-        <v>0.95960053314664395</v>
+        <v>0.984962906507864</v>
       </c>
       <c r="H12">
-        <v>4745273.99677811</v>
+        <v>7280486.6571627399</v>
       </c>
       <c r="I12">
-        <v>1133761.84936888</v>
+        <v>973932.64573804103</v>
       </c>
       <c r="J12">
-        <v>4.4712615932288697</v>
+        <v>7.9240295170931203</v>
       </c>
     </row>
     <row r="13">
@@ -1016,29 +1160,29 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="D13"/>
       <c r="E13">
-        <v>0.76000000000000001</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="F13">
-        <v>1207907.9406758901</v>
+        <v>1029907.11587012</v>
       </c>
       <c r="G13">
-        <v>0.95042965301745097</v>
+        <v>0.98174921243512103</v>
       </c>
       <c r="H13">
-        <v>4895753.6695868298</v>
+        <v>7438150.5074483603</v>
       </c>
       <c r="I13">
-        <v>1285460.87223907</v>
+        <v>1087551.5890900099</v>
       </c>
       <c r="J13">
-        <v>4.0530850942559198</v>
+        <v>7.22215663221652</v>
       </c>
     </row>
     <row r="14">
@@ -1046,29 +1190,29 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="D14"/>
       <c r="E14">
-        <v>0.77000000000000002</v>
+        <v>0.60999999999999999</v>
       </c>
       <c r="F14">
-        <v>1364752.4312676601</v>
+        <v>1146037.9402614599</v>
       </c>
       <c r="G14">
-        <v>0.94003169547757204</v>
+        <v>0.97816060894086998</v>
       </c>
       <c r="H14">
-        <v>5052722.9216454299</v>
+        <v>7600986.3771498604</v>
       </c>
       <c r="I14">
-        <v>1447588.08474049</v>
+        <v>1206220.52460369</v>
       </c>
       <c r="J14">
-        <v>3.7022999966024401</v>
+        <v>6.6324037888446901</v>
       </c>
     </row>
     <row r="15">
@@ -1076,29 +1220,29 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D15"/>
       <c r="E15">
-        <v>0.78000000000000003</v>
+        <v>0.62</v>
       </c>
       <c r="F15">
-        <v>1532227.7502885</v>
+        <v>1267257.00517618</v>
       </c>
       <c r="G15">
-        <v>0.92832230799995297</v>
+        <v>0.97418043252178999</v>
       </c>
       <c r="H15">
-        <v>5216592.6869592899</v>
+        <v>7769269.6890589697</v>
       </c>
       <c r="I15">
-        <v>1620534.1071236101</v>
+        <v>1330011.3550136001</v>
       </c>
       <c r="J15">
-        <v>3.40458047831144</v>
+        <v>6.1307766753902202</v>
       </c>
     </row>
     <row r="16">
@@ -1106,29 +1250,29 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="D16"/>
       <c r="E16">
-        <v>0.79000000000000004</v>
+        <v>0.63</v>
       </c>
       <c r="F16">
-        <v>1710701.0599489899</v>
+        <v>1393629.1476132399</v>
       </c>
       <c r="G16">
-        <v>0.91521397837149299</v>
+        <v>0.96979178241647501</v>
       </c>
       <c r="H16">
-        <v>5387833.5717133703</v>
+        <v>7943303.6980872201</v>
       </c>
       <c r="I16">
-        <v>1804636.3381505699</v>
+        <v>1458981.1394379199</v>
       </c>
       <c r="J16">
-        <v>3.1494886499187902</v>
+        <v>5.6997255774185804</v>
       </c>
     </row>
     <row r="17">
@@ -1136,29 +1280,29 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="D17"/>
       <c r="E17">
-        <v>0.80000000000000004</v>
+        <v>0.64000000000000001</v>
       </c>
       <c r="F17">
-        <v>1900476.4817578399</v>
+        <v>1525203.2822404001</v>
       </c>
       <c r="G17">
-        <v>0.90061646519606098</v>
+        <v>0.96497756958505099</v>
       </c>
       <c r="H17">
-        <v>5566993.4333915096</v>
+        <v>8123423.7691608099</v>
       </c>
       <c r="I17">
-        <v>2000157.7895774399</v>
+        <v>1593169.8972021199</v>
       </c>
       <c r="J17">
-        <v>2.9292619439532999</v>
+        <v>5.3261252868720304</v>
       </c>
     </row>
     <row r="18">
@@ -1166,29 +1310,29 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="D18"/>
       <c r="E18">
-        <v>0.81000000000000005</v>
+        <v>0.65000000000000002</v>
       </c>
       <c r="F18">
-        <v>2101771.5700270599</v>
+        <v>1662010.1501482001</v>
       </c>
       <c r="G18">
-        <v>0.88443739960314405</v>
+        <v>0.95972057293552304</v>
       </c>
       <c r="H18">
-        <v>5754721.6251712004</v>
+        <v>8310002.4512167703</v>
       </c>
       <c r="I18">
-        <v>2207260.9101201398</v>
+        <v>1732598.3159747899</v>
       </c>
       <c r="J18">
-        <v>2.7380338126360302</v>
+        <v>4.9999709390918996</v>
       </c>
     </row>
     <row r="19">
@@ -1196,29 +1340,29 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="D19"/>
       <c r="E19">
-        <v>0.81999999999999995</v>
+        <v>0.66000000000000003</v>
       </c>
       <c r="F19">
-        <v>2314688.3370510698</v>
+        <v>1804059.99557137</v>
       </c>
       <c r="G19">
-        <v>0.86658309869168404</v>
+        <v>0.95400350311261695</v>
       </c>
       <c r="H19">
-        <v>5951802.7760073701</v>
+        <v>8503455.5140180103</v>
       </c>
       <c r="I19">
-        <v>2425975.5118306</v>
+        <v>1877265.4202857499</v>
       </c>
       <c r="J19">
-        <v>2.5713192919916001</v>
+        <v>4.7135103793068804</v>
       </c>
     </row>
     <row r="20">
@@ -1226,29 +1370,29 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="D20"/>
       <c r="E20">
-        <v>0.82999999999999996</v>
+        <v>0.67000000000000004</v>
       </c>
       <c r="F20">
-        <v>2539177.93427883</v>
+        <v>1951340.24061914</v>
       </c>
       <c r="G20">
-        <v>0.84695963841407795</v>
+        <v>0.94780907397982495</v>
       </c>
       <c r="H20">
-        <v>6159204.3797824802</v>
+        <v>8704249.1532220207</v>
       </c>
       <c r="I20">
-        <v>2656159.94070759</v>
+        <v>2027146.2883728901</v>
       </c>
       <c r="J20">
-        <v>2.42566867671359</v>
+        <v>4.4606516957085001</v>
       </c>
     </row>
     <row r="21">
@@ -1256,29 +1400,29 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="D21"/>
       <c r="E21">
-        <v>0.83999999999999997</v>
+        <v>0.68000000000000005</v>
       </c>
       <c r="F21">
-        <v>2774998.20336982</v>
+        <v>2103813.2662842898</v>
       </c>
       <c r="G21">
-        <v>0.82547424054701002</v>
+        <v>0.941120081635196</v>
       </c>
       <c r="H21">
-        <v>6378144.6572246496</v>
+        <v>8912908.6177485492</v>
       </c>
       <c r="I21">
-        <v>2897454.8824628298</v>
+        <v>2182189.9516072799</v>
       </c>
       <c r="J21">
-        <v>2.2984319951916898</v>
+        <v>4.2365492986410898</v>
       </c>
     </row>
     <row r="22">
@@ -1286,29 +1430,29 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="D22"/>
       <c r="E22">
-        <v>0.84999999999999998</v>
+        <v>0.68999999999999995</v>
       </c>
       <c r="F22">
-        <v>3021663.74186518</v>
+        <v>2261414.4632908902</v>
       </c>
       <c r="G22">
-        <v>0.80203703332258003</v>
+        <v>0.93391949035840904</v>
       </c>
       <c r="H22">
-        <v>6610190.6422087802</v>
+        <v>9130028.5747208502</v>
       </c>
       <c r="I22">
-        <v>3149229.9329823698</v>
+        <v>2342317.6776080802</v>
       </c>
       <c r="J22">
-        <v>2.1875996824611899</v>
+        <v>4.0373088272525397</v>
       </c>
     </row>
     <row r="23">
@@ -1316,29 +1460,29 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="D23"/>
       <c r="E23">
-        <v>0.85999999999999999</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="F23">
-        <v>3278389.2661278499</v>
+        <v>2424050.7965241601</v>
       </c>
       <c r="G23">
-        <v>0.77656324424533696</v>
+        <v>0.92619052422307202</v>
       </c>
       <c r="H23">
-        <v>6857402.1214392297</v>
+        <v>9356285.6046246104</v>
       </c>
       <c r="I23">
-        <v>3410524.8762393901</v>
+        <v>2507421.9355662898</v>
       </c>
       <c r="J23">
-        <v>2.0916985643802501</v>
+        <v>3.8597729131916498</v>
       </c>
     </row>
     <row r="24">
@@ -1346,29 +1490,29 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="D24"/>
       <c r="E24">
-        <v>0.87</v>
+        <v>0.70999999999999996</v>
       </c>
       <c r="F24">
-        <v>3544029.7457101098</v>
+        <v>2591600.2435638802</v>
       </c>
       <c r="G24">
-        <v>0.74897586790608806</v>
+        <v>0.917916762123139</v>
       </c>
       <c r="H24">
-        <v>7122546.5249161497</v>
+        <v>9592453.3173507601</v>
       </c>
       <c r="I24">
-        <v>3679991.8066838798</v>
+        <v>2677366.4843043098</v>
       </c>
       <c r="J24">
-        <v>2.0097310225845799</v>
+        <v>3.7013630250935399</v>
       </c>
     </row>
     <row r="25">
@@ -1376,29 +1520,29 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="D25"/>
       <c r="E25">
-        <v>0.88</v>
+        <v>0.71999999999999997</v>
       </c>
       <c r="F25">
-        <v>3817026.94784634</v>
+        <v>2763912.6388974199</v>
       </c>
       <c r="G25">
-        <v>0.71920880196159898</v>
+        <v>0.90908223250877496</v>
       </c>
       <c r="H25">
-        <v>7409426.0847688299</v>
+        <v>9839420.7042452693</v>
       </c>
       <c r="I25">
-        <v>3955853.8401209102</v>
+        <v>2851988.23260102</v>
       </c>
       <c r="J25">
-        <v>1.94115110687112</v>
+        <v>3.5599608199521202</v>
       </c>
     </row>
     <row r="26">
@@ -1406,29 +1550,29 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="D26"/>
       <c r="E26">
-        <v>0.89000000000000001</v>
+        <v>0.72999999999999998</v>
       </c>
       <c r="F26">
-        <v>4095386.20616369</v>
+        <v>2940812.7077162201</v>
       </c>
       <c r="G26">
-        <v>0.68721031709764702</v>
+        <v>0.89967150198367196</v>
       </c>
       <c r="H26">
-        <v>7723387.1979186498</v>
+        <v>10098214.499491399</v>
       </c>
       <c r="I26">
-        <v>4235918.5491166497</v>
+        <v>3031101.8308157702</v>
       </c>
       <c r="J26">
-        <v>1.8858751798047</v>
+        <v>3.43381762224955</v>
       </c>
     </row>
     <row r="27">
@@ -1436,29 +1580,29 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="D27"/>
       <c r="E27">
-        <v>0.90000000000000002</v>
+        <v>0.73999999999999999</v>
       </c>
       <c r="F27">
-        <v>4376740.6985496599</v>
+        <v>3122106.4484835002</v>
       </c>
       <c r="G27">
-        <v>0.65294641831449596</v>
+        <v>0.88966974875135296</v>
       </c>
       <c r="H27">
-        <v>8072134.06279884</v>
+        <v>10370026.5252096</v>
       </c>
       <c r="I27">
-        <v>4517738.4021067703</v>
+        <v>3214508.4154360602</v>
       </c>
       <c r="J27">
-        <v>1.84432540531217</v>
+        <v>3.3214839712613502</v>
       </c>
     </row>
     <row r="28">
@@ -1466,29 +1610,29 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="D28"/>
       <c r="E28">
-        <v>0.91000000000000003</v>
+        <v>0.75</v>
       </c>
       <c r="F28">
-        <v>4658643.0885305395</v>
+        <v>3307592.5868394501</v>
       </c>
       <c r="G28">
-        <v>0.61640290843732404</v>
+        <v>0.87906280720701202</v>
       </c>
       <c r="H28">
-        <v>8467066.9139868505</v>
+        <v>10656247.2496006</v>
       </c>
       <c r="I28">
-        <v>4799148.5406857803</v>
+        <v>3402010.62643361</v>
       </c>
       <c r="J28">
-        <v>1.8174963724593001</v>
+        <v>3.2217532751768299</v>
       </c>
     </row>
     <row r="29">
@@ -1496,29 +1640,29 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="D29"/>
       <c r="E29">
-        <v>0.92000000000000004</v>
+        <v>0.76000000000000001</v>
       </c>
       <c r="F29">
-        <v>4939440.5753677404</v>
+        <v>3497081.6779695698</v>
       </c>
       <c r="G29">
-        <v>0.577583101602828</v>
+        <v>0.86783716297645797</v>
       </c>
       <c r="H29">
-        <v>8925556.7106494904</v>
+        <v>10958507.1088992</v>
       </c>
       <c r="I29">
-        <v>5079789.4936617101</v>
+        <v>3593437.0828714501</v>
       </c>
       <c r="J29">
-        <v>1.80699748776409</v>
+        <v>3.13361485890767</v>
       </c>
     </row>
     <row r="30">
@@ -1526,29 +1670,29 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="D30"/>
       <c r="E30">
-        <v>0.93000000000000005</v>
+        <v>0.77000000000000002</v>
       </c>
       <c r="F30">
-        <v>5220700.0722609702</v>
+        <v>3690426.7456252598</v>
       </c>
       <c r="G30">
-        <v>0.53649321967230001</v>
+        <v>0.85597986719267605</v>
       </c>
       <c r="H30">
-        <v>9474952.02736203</v>
+        <v>11278727.544813501</v>
       </c>
       <c r="I30">
-        <v>5365347.2128153099</v>
+        <v>3788681.14761686</v>
       </c>
       <c r="J30">
-        <v>1.81488150941769</v>
+        <v>3.0562122817323498</v>
       </c>
     </row>
     <row r="31">
@@ -1556,29 +1700,29 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="D31"/>
       <c r="E31">
-        <v>0.93999999999999995</v>
+        <v>0.78000000000000003</v>
       </c>
       <c r="F31">
-        <v>5514046.1884779502</v>
+        <v>3887571.38246</v>
       </c>
       <c r="G31">
-        <v>0.49309349144223202</v>
+        <v>0.84347832286013003</v>
       </c>
       <c r="H31">
-        <v>10159886.1631198</v>
+        <v>11619184.1992315</v>
       </c>
       <c r="I31">
-        <v>5679980.4492304698</v>
+        <v>3987761.38618263</v>
       </c>
       <c r="J31">
-        <v>1.8425464379224299</v>
+        <v>2.9888027912889501</v>
       </c>
     </row>
     <row r="32">
@@ -1586,29 +1730,29 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="D32"/>
       <c r="E32">
-        <v>0.94999999999999996</v>
+        <v>0.79000000000000004</v>
       </c>
       <c r="F32">
-        <v>5861892.9191228198</v>
+        <v>4088624.4421426202</v>
       </c>
       <c r="G32">
-        <v>0.44714872811733403</v>
+        <v>0.83031987172249999</v>
       </c>
       <c r="H32">
-        <v>11055867.3058977</v>
+        <v>11982585.2855672</v>
       </c>
       <c r="I32">
-        <v>6106620.0504287696</v>
+        <v>4190915.2078775698</v>
       </c>
       <c r="J32">
-        <v>1.8860575343897801</v>
+        <v>2.9307131176097401</v>
       </c>
     </row>
     <row r="33">
@@ -1616,29 +1760,29 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="D33"/>
       <c r="E33">
-        <v>0.95999999999999996</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F33">
-        <v>6408260.2939722501</v>
+        <v>4293975.5731335701</v>
       </c>
       <c r="G33">
-        <v>0.397752922015566</v>
+        <v>0.81649107214189098</v>
       </c>
       <c r="H33">
-        <v>12293179.1197649</v>
+        <v>12372168.789451599</v>
       </c>
       <c r="I33">
-        <v>6920880.3591661695</v>
+        <v>4398743.7516661901</v>
       </c>
       <c r="J33">
-        <v>1.91833330043228</v>
+        <v>2.8812853214306799</v>
       </c>
     </row>
     <row r="34">
@@ -1646,29 +1790,29 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="D34"/>
       <c r="E34">
-        <v>0.96999999999999997</v>
+        <v>0.81000000000000005</v>
       </c>
       <c r="F34">
-        <v>7583775.5680749798</v>
+        <v>4504474.1455483697</v>
       </c>
       <c r="G34">
-        <v>0.34177065007924201</v>
+        <v>0.80197649889691003</v>
       </c>
       <c r="H34">
-        <v>14083945.373297799</v>
+        <v>12791822.7388088</v>
       </c>
       <c r="I34">
-        <v>8569039.3007231504</v>
+        <v>4612436.8329257499</v>
       </c>
       <c r="J34">
-        <v>1.8571152649329801</v>
+        <v>2.8398037874078002</v>
       </c>
     </row>
     <row r="35">
@@ -1676,29 +1820,29 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="D35"/>
       <c r="E35">
-        <v>0.97999999999999998</v>
+        <v>0.81999999999999995</v>
       </c>
       <c r="F35">
-        <v>9706480.5287728496</v>
+        <v>4721707.8048787303</v>
       </c>
       <c r="G35">
-        <v>0.27245659413969803</v>
+        <v>0.78675680072194998</v>
       </c>
       <c r="H35">
-        <v>16841398.4095852</v>
+        <v>13246233.0669134</v>
       </c>
       <c r="I35">
-        <v>11028415.7111283</v>
+        <v>4834124.6560077798</v>
       </c>
       <c r="J35">
-        <v>1.7350674489751801</v>
+        <v>2.80539025587874</v>
       </c>
     </row>
     <row r="36">
@@ -1706,29 +1850,29 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="D36"/>
       <c r="E36">
-        <v>0.98999999999999999</v>
+        <v>0.82999999999999996</v>
       </c>
       <c r="F36">
-        <v>12404003.783825999</v>
+        <v>4948439.8274331</v>
       </c>
       <c r="G36">
-        <v>0.18324890157360399</v>
+        <v>0.770805597297468</v>
       </c>
       <c r="H36">
-        <v>22654381.108042099</v>
+        <v>13741062.973437199</v>
       </c>
       <c r="I36">
-        <v>12575211.4766514</v>
+        <v>5067433.2830915703</v>
       </c>
       <c r="J36">
-        <v>1.8263765073646401</v>
+        <v>2.7768475423829</v>
       </c>
     </row>
     <row r="37">
@@ -1736,29 +1880,29 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="D37"/>
       <c r="E37">
-        <v>0.99099999999999999</v>
+        <v>0.83999999999999997</v>
       </c>
       <c r="F37">
-        <v>12759821.6471589</v>
+        <v>5189303.6129549202</v>
       </c>
       <c r="G37">
-        <v>0.17307694552165101</v>
+        <v>0.754084543354822</v>
       </c>
       <c r="H37">
-        <v>23774288.844863199</v>
+        <v>14283164.8290838</v>
       </c>
       <c r="I37">
-        <v>12984902.735652599</v>
+        <v>5318373.0679919198</v>
       </c>
       <c r="J37">
-        <v>1.8632148240219899</v>
+        <v>2.7524241968472198</v>
       </c>
     </row>
     <row r="38">
@@ -1766,29 +1910,29 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="D38"/>
       <c r="E38">
-        <v>0.99199999999999999</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="F38">
-        <v>13239467.438899901</v>
+        <v>5451920.7397398297</v>
       </c>
       <c r="G38">
-        <v>0.16257359452742001</v>
+        <v>0.73653546120829605</v>
       </c>
       <c r="H38">
-        <v>25122962.1085146</v>
+        <v>14880817.6131566</v>
       </c>
       <c r="I38">
-        <v>13582456.0602942</v>
+        <v>5596780.97830268</v>
       </c>
       <c r="J38">
-        <v>1.8975810186064399</v>
+        <v>2.7294633072502701</v>
       </c>
     </row>
     <row r="39">
@@ -1796,29 +1940,29 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="D39"/>
       <c r="E39">
-        <v>0.99299999999999999</v>
+        <v>0.85999999999999999</v>
       </c>
       <c r="F39">
-        <v>13989842.488800799</v>
+        <v>5748729.5974037098</v>
       </c>
       <c r="G39">
-        <v>0.15158688894561501</v>
+        <v>0.71806771404413805</v>
       </c>
       <c r="H39">
-        <v>26771605.829688899</v>
+        <v>15543963.087074799</v>
       </c>
       <c r="I39">
-        <v>14590711.980994601</v>
+        <v>5918701.74233591</v>
       </c>
       <c r="J39">
-        <v>1.9136459792967799</v>
+        <v>2.7038953256898499</v>
       </c>
     </row>
     <row r="40">
@@ -1826,29 +1970,29 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="D40"/>
       <c r="E40">
-        <v>0.99399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="F40">
-        <v>15325555.9974938</v>
+        <v>6100028.9379068203</v>
       </c>
       <c r="G40">
-        <v>0.139784615774069</v>
+        <v>0.69853772211819498</v>
       </c>
       <c r="H40">
-        <v>28801754.804471299</v>
+        <v>16284367.805900799</v>
       </c>
       <c r="I40">
-        <v>16322435.8630544</v>
+        <v>6310390.8215528298</v>
       </c>
       <c r="J40">
-        <v>1.87932854176262</v>
+        <v>2.6695558286136101</v>
       </c>
     </row>
     <row r="41">
@@ -1856,29 +2000,29 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="D41"/>
       <c r="E41">
-        <v>0.995</v>
+        <v>0.88</v>
       </c>
       <c r="F41">
-        <v>17421076.966909502</v>
+        <v>6539138.0927251102</v>
       </c>
       <c r="G41">
-        <v>0.12658156940239601</v>
+        <v>0.67771527031040502</v>
       </c>
       <c r="H41">
-        <v>31297618.592754699</v>
+        <v>17115532.554596499</v>
       </c>
       <c r="I41">
-        <v>18615288.340126801</v>
+        <v>6813277.1934179896</v>
       </c>
       <c r="J41">
-        <v>1.7965375304984299</v>
+        <v>2.61739885469582</v>
       </c>
     </row>
     <row r="42">
@@ -1886,29 +2030,29 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="D42"/>
       <c r="E42">
-        <v>0.996</v>
+        <v>0.89000000000000001</v>
       </c>
       <c r="F42">
-        <v>19786036.887347601</v>
+        <v>7112359.82269393</v>
       </c>
       <c r="G42">
-        <v>0.111523858822992</v>
+        <v>0.65523343994127503</v>
       </c>
       <c r="H42">
-        <v>34468201.155911602</v>
+        <v>18052101.223794602</v>
       </c>
       <c r="I42">
-        <v>20736257.323242199</v>
+        <v>7461053.9891579701</v>
       </c>
       <c r="J42">
-        <v>1.7420467449928101</v>
+        <v>2.5381310386173599</v>
       </c>
     </row>
     <row r="43">
@@ -1916,29 +2060,29 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C43" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="D43"/>
       <c r="E43">
-        <v>0.997</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F43">
-        <v>21508447.7313837</v>
+        <v>7834093.3551098304</v>
       </c>
       <c r="G43">
-        <v>0.094750518782893603</v>
+        <v>0.63061413481140205</v>
       </c>
       <c r="H43">
-        <v>39045515.766801499</v>
+        <v>19111205.9472582</v>
       </c>
       <c r="I43">
-        <v>22327508.1935695</v>
+        <v>8253818.3832260603</v>
       </c>
       <c r="J43">
-        <v>1.81535721472958</v>
+        <v>2.4394917294153502</v>
       </c>
     </row>
     <row r="44">
@@ -1946,29 +2090,29 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="D44"/>
       <c r="E44">
-        <v>0.998</v>
+        <v>0.91000000000000003</v>
       </c>
       <c r="F44">
-        <v>24088201.066353299</v>
+        <v>8695468.3366484903</v>
       </c>
       <c r="G44">
-        <v>0.076690032681620904</v>
+        <v>0.60337893807398602</v>
       </c>
       <c r="H44">
-        <v>47404519.553417496</v>
+        <v>20317582.343261801</v>
       </c>
       <c r="I44">
-        <v>29655976.876859602</v>
+        <v>9176805.2523428109</v>
       </c>
       <c r="J44">
-        <v>1.9679559890270399</v>
+        <v>2.3365713675972999</v>
       </c>
     </row>
     <row r="45">
@@ -1976,29 +2120,29 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="D45"/>
       <c r="E45">
-        <v>0.999</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="F45">
-        <v>33565108.796202697</v>
+        <v>9675481.39613433</v>
       </c>
       <c r="G45">
-        <v>0.052701625486301099</v>
+        <v>0.57309815348870397</v>
       </c>
       <c r="H45">
-        <v>65153062.229975298</v>
+        <v>21710179.4796267</v>
       </c>
       <c r="I45">
-        <v>34724547.633482501</v>
+        <v>10203010.579298699</v>
       </c>
       <c r="J45">
-        <v>1.9410949216808799</v>
+        <v>2.2438345536275399</v>
       </c>
     </row>
     <row r="46">
@@ -2006,29 +2150,29 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C46" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="D46"/>
       <c r="E46">
-        <v>0.99909999999999999</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="F46">
-        <v>36308342.8346963</v>
+        <v>10742121.602607099</v>
       </c>
       <c r="G46">
-        <v>0.049892793419281399</v>
+        <v>0.53943119020709496</v>
       </c>
       <c r="H46">
-        <v>68534008.296251804</v>
+        <v>23354060.751102101</v>
       </c>
       <c r="I46">
-        <v>38341678.145945698</v>
+        <v>11301462.964230999</v>
       </c>
       <c r="J46">
-        <v>1.8875553921111601</v>
+        <v>2.1740640829679498</v>
       </c>
     </row>
     <row r="47">
@@ -2036,29 +2180,29 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="D47"/>
       <c r="E47">
-        <v>0.99919999999999998</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="F47">
-        <v>40358122.095331602</v>
+        <v>11871960.384362999</v>
       </c>
       <c r="G47">
-        <v>0.046791375476666203</v>
+        <v>0.50213965397981597</v>
       </c>
       <c r="H47">
-        <v>72308049.565039605</v>
+        <v>25362827.0489139</v>
       </c>
       <c r="I47">
-        <v>41908638.6157436</v>
+        <v>12485304.615821799</v>
       </c>
       <c r="J47">
-        <v>1.79166040962554</v>
+        <v>2.1363638546436001</v>
       </c>
     </row>
     <row r="48">
@@ -2066,29 +2210,29 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C48" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="D48"/>
       <c r="E48">
-        <v>0.99929999999999997</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="F48">
-        <v>43079488.911088303</v>
+        <v>13143247.0065767</v>
       </c>
       <c r="G48">
-        <v>0.043401429860339902</v>
+        <v>0.46094178509654499</v>
       </c>
       <c r="H48">
-        <v>76650822.557795495</v>
+        <v>27938331.5355324</v>
       </c>
       <c r="I48">
-        <v>43719153.5099397</v>
+        <v>14023486.999812899</v>
       </c>
       <c r="J48">
-        <v>1.7792881135612999</v>
+        <v>2.1256795616450299</v>
       </c>
     </row>
     <row r="49">
@@ -2096,29 +2240,29 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="D49"/>
       <c r="E49">
-        <v>0.99939999999999996</v>
+        <v>0.95999999999999996</v>
       </c>
       <c r="F49">
-        <v>44544709.192168303</v>
+        <v>15138405.160992499</v>
       </c>
       <c r="G49">
-        <v>0.039865033602055303</v>
+        <v>0.41466836234221299</v>
       </c>
       <c r="H49">
-        <v>82139434.065770507</v>
+        <v>31417042.6694622</v>
       </c>
       <c r="I49">
-        <v>47089914.109973498</v>
+        <v>16927708.692620799</v>
       </c>
       <c r="J49">
-        <v>1.84397733323202</v>
+        <v>2.07532050670802</v>
       </c>
     </row>
     <row r="50">
@@ -2126,29 +2270,29 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="D50"/>
       <c r="E50">
-        <v>0.99950000000000006</v>
+        <v>0.96999999999999997</v>
       </c>
       <c r="F50">
-        <v>50857074.301298402</v>
+        <v>19037067.147975501</v>
       </c>
       <c r="G50">
-        <v>0.036055980070778801</v>
+        <v>0.35881185385710601</v>
       </c>
       <c r="H50">
-        <v>89149338.056928307</v>
+        <v>36246820.661742702</v>
       </c>
       <c r="I50">
-        <v>55669261.722095601</v>
+        <v>21642142.8215537</v>
       </c>
       <c r="J50">
-        <v>1.7529387854435099</v>
+        <v>1.9040128597538399</v>
       </c>
     </row>
     <row r="51">
@@ -2156,29 +2300,29 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C51" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="D51"/>
       <c r="E51">
-        <v>0.99960000000000004</v>
+        <v>0.97999999999999998</v>
       </c>
       <c r="F51">
-        <v>58792862.800561897</v>
+        <v>24527596.307741702</v>
       </c>
       <c r="G51">
-        <v>0.031552952151660402</v>
+        <v>0.287399085826961</v>
       </c>
       <c r="H51">
-        <v>97519357.140634194</v>
+        <v>43549159.581837103</v>
       </c>
       <c r="I51">
-        <v>64242003.547317997</v>
+        <v>29611896.718844201</v>
       </c>
       <c r="J51">
-        <v>1.6586938021957001</v>
+        <v>1.7755168111638999</v>
       </c>
     </row>
     <row r="52">
@@ -2186,29 +2330,29 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C52" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="D52"/>
       <c r="E52">
-        <v>0.99970000000000003</v>
+        <v>0.98999999999999999</v>
       </c>
       <c r="F52">
-        <v>75085012.349164099</v>
+        <v>35437342.559916399</v>
       </c>
       <c r="G52">
-        <v>0.0263564841798354</v>
+        <v>0.18968845112911401</v>
       </c>
       <c r="H52">
-        <v>108611808.33841801</v>
+        <v>57486422.444830097</v>
       </c>
       <c r="I52">
-        <v>84182036.743050903</v>
+        <v>36094601.5735147</v>
       </c>
       <c r="J52">
-        <v>1.4465178194730299</v>
+        <v>1.6221990220523399</v>
       </c>
     </row>
     <row r="53">
@@ -2216,29 +2360,29 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C53" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="D53"/>
       <c r="E53">
-        <v>0.99980000000000002</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="F53">
-        <v>93864066.906006694</v>
+        <v>36927211.131886102</v>
       </c>
       <c r="G53">
-        <v>0.0195470879346584</v>
+        <v>0.17777828386627401</v>
       </c>
       <c r="H53">
-        <v>120826694.13610201</v>
+        <v>59863291.4305318</v>
       </c>
       <c r="I53">
-        <v>105223621.332105</v>
+        <v>38206316.495923102</v>
       </c>
       <c r="J53">
-        <v>1.2872518538653901</v>
+        <v>1.62111596287976</v>
       </c>
     </row>
     <row r="54">
@@ -2246,29 +2390,29 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C54" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="D54"/>
       <c r="E54">
-        <v>0.99990000000000001</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="F54">
-        <v>117852089.413445</v>
+        <v>39722681.596608497</v>
       </c>
       <c r="G54">
-        <v>0.0110356600846792</v>
+        <v>0.16517131218280201</v>
       </c>
       <c r="H54">
-        <v>136429766.94009799</v>
+        <v>62570413.297357902</v>
       </c>
       <c r="I54">
-        <v>119303015.44404501</v>
+        <v>41542715.749760702</v>
       </c>
       <c r="J54">
-        <v>1.15763553806398</v>
+        <v>1.57518099942931</v>
       </c>
     </row>
     <row r="55">
@@ -2276,29 +2420,29 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C55" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="D55"/>
       <c r="E55">
-        <v>0.99990999999999997</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="F55">
-        <v>120777701.89108901</v>
+        <v>43312964.263086401</v>
       </c>
       <c r="G55">
-        <v>0.010070630564332699</v>
+        <v>0.15146342591829901</v>
       </c>
       <c r="H55">
-        <v>138332739.32853901</v>
+        <v>65574370.089871697</v>
       </c>
       <c r="I55">
-        <v>122303883.078182</v>
+        <v>44241004.716582596</v>
       </c>
       <c r="J55">
-        <v>1.1453499873120701</v>
+        <v>1.51396634253818</v>
       </c>
     </row>
     <row r="56">
@@ -2306,29 +2450,29 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="D56"/>
       <c r="E56">
-        <v>0.99992000000000003</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="F56">
-        <v>123858029.155228</v>
+        <v>44681246.402434997</v>
       </c>
       <c r="G56">
-        <v>0.0090813273419107898</v>
+        <v>0.13686518288249699</v>
       </c>
       <c r="H56">
-        <v>140336346.35982299</v>
+        <v>69129930.985420004</v>
       </c>
       <c r="I56">
-        <v>125473387.365024</v>
+        <v>44936726.907936402</v>
       </c>
       <c r="J56">
-        <v>1.13304197811789</v>
+        <v>1.5471800039502199</v>
       </c>
     </row>
     <row r="57">
@@ -2336,29 +2480,29 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C57" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="D57"/>
       <c r="E57">
-        <v>0.99992999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="F57">
-        <v>127122340.334511</v>
+        <v>45334095.990745597</v>
       </c>
       <c r="G57">
-        <v>0.0080663863332884993</v>
+        <v>0.122037371786478</v>
       </c>
       <c r="H57">
-        <v>142459626.21623701</v>
+        <v>73968571.800916702</v>
       </c>
       <c r="I57">
-        <v>128845772.49591701</v>
+        <v>47415999.746903002</v>
       </c>
       <c r="J57">
-        <v>1.12064980743249</v>
+        <v>1.63163222259944</v>
       </c>
     </row>
     <row r="58">
@@ -2366,29 +2510,29 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="D58"/>
       <c r="E58">
-        <v>0.99994000000000005</v>
+        <v>0.996</v>
       </c>
       <c r="F58">
-        <v>130610642.858383</v>
+        <v>52636650.809463002</v>
       </c>
       <c r="G58">
-        <v>0.0070241664567194002</v>
+        <v>0.106391472862501</v>
       </c>
       <c r="H58">
-        <v>144728601.83627701</v>
+        <v>80606714.81442</v>
       </c>
       <c r="I58">
-        <v>132468953.94234</v>
+        <v>57254226.975046001</v>
       </c>
       <c r="J58">
-        <v>1.10809194923879</v>
+        <v>1.5313800094577601</v>
       </c>
     </row>
     <row r="59">
@@ -2396,29 +2540,29 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C59" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="D59"/>
       <c r="E59">
-        <v>0.99995000000000001</v>
+        <v>0.997</v>
       </c>
       <c r="F59">
-        <v>134380217.137878</v>
+        <v>59010873.838372201</v>
       </c>
       <c r="G59">
-        <v>0.0059526390472119097</v>
+        <v>0.087499245491918301</v>
       </c>
       <c r="H59">
-        <v>147180531.41508201</v>
+        <v>88390877.427544698</v>
       </c>
       <c r="I59">
-        <v>136413750.85279301</v>
+        <v>59502417.51856</v>
       </c>
       <c r="J59">
-        <v>1.09525445448619</v>
+        <v>1.4978744031082001</v>
       </c>
     </row>
     <row r="60">
@@ -2426,29 +2570,29 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C60" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="D60"/>
       <c r="E60">
-        <v>0.99995999999999996</v>
+        <v>0.998</v>
       </c>
       <c r="F60">
-        <v>138518404.815777</v>
+        <v>59993961.198747702</v>
       </c>
       <c r="G60">
-        <v>0.0048492025911914</v>
+        <v>0.067865180720596704</v>
       </c>
       <c r="H60">
-        <v>149872226.555639</v>
+        <v>102835107.382037</v>
       </c>
       <c r="I60">
-        <v>140793225.63038799</v>
+        <v>78718525.470426306</v>
       </c>
       <c r="J60">
-        <v>1.08196616005622</v>
+        <v>1.71409097394595</v>
       </c>
     </row>
     <row r="61">
@@ -2456,29 +2600,29 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C61" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="D61"/>
       <c r="E61">
-        <v>0.99997000000000003</v>
+        <v>0.999</v>
       </c>
       <c r="F61">
-        <v>143171062.688023</v>
+        <v>89822933.700872704</v>
       </c>
       <c r="G61">
-        <v>0.0037103410251829502</v>
+        <v>0.0418903599949145</v>
       </c>
       <c r="H61">
-        <v>152898560.19736499</v>
+        <v>126951689.293648</v>
       </c>
       <c r="I61">
-        <v>145810482.27832699</v>
+        <v>91298153.720757499</v>
       </c>
       <c r="J61">
-        <v>1.0679431815809</v>
+        <v>1.41335496474009</v>
       </c>
     </row>
     <row r="62">
@@ -2486,29 +2630,29 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C62" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="D62"/>
       <c r="E62">
-        <v>0.99997999999999998</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="F62">
-        <v>148619636.01691401</v>
+        <v>92838962.790458396</v>
       </c>
       <c r="G62">
-        <v>0.0025308953988307202</v>
+        <v>0.038877786828293001</v>
       </c>
       <c r="H62">
-        <v>156442599.15690199</v>
+        <v>130913193.24619099</v>
       </c>
       <c r="I62">
-        <v>151915508.29238501</v>
+        <v>94528196.653826103</v>
       </c>
       <c r="J62">
-        <v>1.0526374801449401</v>
+        <v>1.41011046775337</v>
       </c>
     </row>
     <row r="63">
@@ -2516,29 +2660,509 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C63" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="D63"/>
       <c r="E63">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="F63">
+        <v>96301606.3174382</v>
+      </c>
+      <c r="G63">
+        <v>0.035758631652390599</v>
+      </c>
+      <c r="H63">
+        <v>135461317.820236</v>
+      </c>
+      <c r="I63">
+        <v>98268453.722060204</v>
+      </c>
+      <c r="J63">
+        <v>1.40663611958575</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" t="s">
+        <v>221</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="F64">
+        <v>100346778.533015</v>
+      </c>
+      <c r="G64">
+        <v>0.032516058886747003</v>
+      </c>
+      <c r="H64">
+        <v>140774584.11997399</v>
+      </c>
+      <c r="I64">
+        <v>102686396.72451399</v>
+      </c>
+      <c r="J64">
+        <v>1.4028809512171601</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" t="s">
+        <v>222</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="F65">
+        <v>105179752.849943</v>
+      </c>
+      <c r="G65">
+        <v>0.0291277068692955</v>
+      </c>
+      <c r="H65">
+        <v>147122615.35255</v>
+      </c>
+      <c r="I65">
+        <v>108043090.424492</v>
+      </c>
+      <c r="J65">
+        <v>1.3987731608615399</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" t="s">
+        <v>223</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="F66">
+        <v>111130269.896102</v>
+      </c>
+      <c r="G66">
+        <v>0.025562599561132202</v>
+      </c>
+      <c r="H66">
+        <v>154938520.33815899</v>
+      </c>
+      <c r="I66">
+        <v>114776448.46584301</v>
+      </c>
+      <c r="J66">
+        <v>1.39420628135804</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" t="s">
+        <v>224</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="F67">
+        <v>118774461.25094999</v>
+      </c>
+      <c r="G67">
+        <v>0.021775311048531198</v>
+      </c>
+      <c r="H67">
+        <v>164979038.306236</v>
+      </c>
+      <c r="I67">
+        <v>123701513.545261</v>
+      </c>
+      <c r="J67">
+        <v>1.3890110430192799</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" t="s">
+        <v>225</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="F68">
+        <v>129249793.929037</v>
+      </c>
+      <c r="G68">
+        <v>0.0176935213825852</v>
+      </c>
+      <c r="H68">
+        <v>178738213.226576</v>
+      </c>
+      <c r="I68">
+        <v>136600595.83188701</v>
+      </c>
+      <c r="J68">
+        <v>1.38288973462279</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" t="s">
+        <v>226</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F69">
+        <v>145290201.985001</v>
+      </c>
+      <c r="G69">
+        <v>0.0131860995698033</v>
+      </c>
+      <c r="H69">
+        <v>199807021.92392099</v>
+      </c>
+      <c r="I69">
+        <v>158713454.30077901</v>
+      </c>
+      <c r="J69">
+        <v>1.3752270916695899</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" t="s">
+        <v>227</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F70">
+        <v>176576147.12881199</v>
+      </c>
+      <c r="G70">
+        <v>0.0079490178313187908</v>
+      </c>
+      <c r="H70">
+        <v>240900589.54706299</v>
+      </c>
+      <c r="I70">
+        <v>179131921.04872501</v>
+      </c>
+      <c r="J70">
+        <v>1.3642872690575001</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" t="s">
+        <v>228</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71">
+        <v>0.99990999999999997</v>
+      </c>
+      <c r="F71">
+        <v>181801326.00719199</v>
+      </c>
+      <c r="G71">
+        <v>0.00735793466408968</v>
+      </c>
+      <c r="H71">
+        <v>247763774.935734</v>
+      </c>
+      <c r="I71">
+        <v>184727872.41683099</v>
+      </c>
+      <c r="J71">
+        <v>1.36282710570511</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" t="s">
+        <v>229</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72">
+        <v>0.99992000000000003</v>
+      </c>
+      <c r="F72">
+        <v>187800250.846147</v>
+      </c>
+      <c r="G72">
+        <v>0.0067483864871685003</v>
+      </c>
+      <c r="H72">
+        <v>255643262.750552</v>
+      </c>
+      <c r="I72">
+        <v>191207754.292036</v>
+      </c>
+      <c r="J72">
+        <v>1.3612509120660601</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" t="s">
+        <v>230</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73">
+        <v>0.99992999999999999</v>
+      </c>
+      <c r="F73">
+        <v>194808388.96174201</v>
+      </c>
+      <c r="G73">
+        <v>0.0061174565873198302</v>
+      </c>
+      <c r="H73">
+        <v>264848335.38753799</v>
+      </c>
+      <c r="I73">
+        <v>198861706.48441401</v>
+      </c>
+      <c r="J73">
+        <v>1.35953249651662</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" t="s">
+        <v>231</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="F74">
+        <v>203181370.31253701</v>
+      </c>
+      <c r="G74">
+        <v>0.0054612708744595497</v>
+      </c>
+      <c r="H74">
+        <v>275846106.87133199</v>
+      </c>
+      <c r="I74">
+        <v>208142015.774499</v>
+      </c>
+      <c r="J74">
+        <v>1.35763483850424</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" t="s">
+        <v>232</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75">
+        <v>0.99995000000000001</v>
+      </c>
+      <c r="F75">
+        <v>213490460.53077501</v>
+      </c>
+      <c r="G75">
+        <v>0.0047744628438275497</v>
+      </c>
+      <c r="H75">
+        <v>289386925.09079099</v>
+      </c>
+      <c r="I75">
+        <v>219807354.26206201</v>
+      </c>
+      <c r="J75">
+        <v>1.3555028377910801</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" t="s">
+        <v>233</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76">
+        <v>0.99995999999999996</v>
+      </c>
+      <c r="F76">
+        <v>226733790.095323</v>
+      </c>
+      <c r="G76">
+        <v>0.0040491625937278701</v>
+      </c>
+      <c r="H76">
+        <v>306781817.79787397</v>
+      </c>
+      <c r="I76">
+        <v>235269758.68720299</v>
+      </c>
+      <c r="J76">
+        <v>1.35304851415793</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="s">
+        <v>234</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77">
+        <v>0.99997000000000003</v>
+      </c>
+      <c r="F77">
+        <v>244881986.09329</v>
+      </c>
+      <c r="G77">
+        <v>0.0032728409124557602</v>
+      </c>
+      <c r="H77">
+        <v>330619170.83459401</v>
+      </c>
+      <c r="I77">
+        <v>257617027.335053</v>
+      </c>
+      <c r="J77">
+        <v>1.35011634015677</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" t="s">
+        <v>235</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78">
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="F78">
+        <v>272671506.31534803</v>
+      </c>
+      <c r="G78">
+        <v>0.0024227797532856599</v>
+      </c>
+      <c r="H78">
+        <v>367120242.58456397</v>
+      </c>
+      <c r="I78">
+        <v>295926883.63300401</v>
+      </c>
+      <c r="J78">
+        <v>1.3463828602611101</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" t="s">
+        <v>236</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F63">
-        <v>155579544.421767</v>
-      </c>
-      <c r="G63">
-        <v>0.00130206686038232</v>
-      </c>
-      <c r="H63">
-        <v>160969690.02136901</v>
-      </c>
-      <c r="I63">
-        <v>160969690.02137601</v>
-      </c>
-      <c r="J63">
-        <v>1.0346455931570899</v>
+      <c r="F79">
+        <v>326873456.92629802</v>
+      </c>
+      <c r="G79">
+        <v>0.00144630722610017</v>
+      </c>
+      <c r="H79">
+        <v>438313601.53532797</v>
+      </c>
+      <c r="I79">
+        <v>438313601.53532898</v>
+      </c>
+      <c r="J79">
+        <v>1.34092748201992</v>
       </c>
     </row>
   </sheetData>
